--- a/natmiOut/OldD2/LR-pairs_lrc2p/Nodal-Acvr2a.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Nodal-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -89,15 +98,6 @@
   </si>
   <si>
     <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.378121479717669</v>
+        <v>1.019961</v>
       </c>
       <c r="H2">
-        <v>0.378121479717669</v>
+        <v>2.039922</v>
       </c>
       <c r="I2">
-        <v>0.3347246604646241</v>
+        <v>0.3840722173751125</v>
       </c>
       <c r="J2">
-        <v>0.3347246604646241</v>
+        <v>0.3057640068128024</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.6444693044665</v>
+        <v>10.6794795</v>
       </c>
       <c r="N2">
-        <v>10.6444693044665</v>
+        <v>21.358959</v>
       </c>
       <c r="O2">
-        <v>0.1476353775197148</v>
+        <v>0.1386817475209803</v>
       </c>
       <c r="P2">
-        <v>0.1476353775197148</v>
+        <v>0.1052706227093344</v>
       </c>
       <c r="Q2">
-        <v>4.024902484214181</v>
+        <v>10.8926525902995</v>
       </c>
       <c r="R2">
-        <v>4.024902484214181</v>
+        <v>43.57061036119799</v>
       </c>
       <c r="S2">
-        <v>0.04941720161285314</v>
+        <v>0.05326380627983839</v>
       </c>
       <c r="T2">
-        <v>0.04941720161285314</v>
+        <v>0.03218796739928487</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.378121479717669</v>
+        <v>1.019961</v>
       </c>
       <c r="H3">
-        <v>0.378121479717669</v>
+        <v>2.039922</v>
       </c>
       <c r="I3">
-        <v>0.3347246604646241</v>
+        <v>0.3840722173751125</v>
       </c>
       <c r="J3">
-        <v>0.3347246604646241</v>
+        <v>0.3057640068128024</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>24.6712015127492</v>
+        <v>26.32069366666667</v>
       </c>
       <c r="N3">
-        <v>24.6712015127492</v>
+        <v>78.962081</v>
       </c>
       <c r="O3">
-        <v>0.3421816574426433</v>
+        <v>0.3417956646349414</v>
       </c>
       <c r="P3">
-        <v>0.3421816574426433</v>
+        <v>0.3891756820777128</v>
       </c>
       <c r="Q3">
-        <v>9.328711222413522</v>
+        <v>26.846081032947</v>
       </c>
       <c r="R3">
-        <v>9.328711222413522</v>
+        <v>161.076486197682</v>
       </c>
       <c r="S3">
-        <v>0.1145366391047111</v>
+        <v>0.1312742188055422</v>
       </c>
       <c r="T3">
-        <v>0.1145366391047111</v>
+        <v>0.1189959159061868</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.378121479717669</v>
+        <v>1.019961</v>
       </c>
       <c r="H4">
-        <v>0.378121479717669</v>
+        <v>2.039922</v>
       </c>
       <c r="I4">
-        <v>0.3347246604646241</v>
+        <v>0.3840722173751125</v>
       </c>
       <c r="J4">
-        <v>0.3347246604646241</v>
+        <v>0.3057640068128024</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.64877581538767</v>
+        <v>5.92768</v>
       </c>
       <c r="N4">
-        <v>5.64877581538767</v>
+        <v>17.78304</v>
       </c>
       <c r="O4">
-        <v>0.07834671003081929</v>
+        <v>0.07697575721224656</v>
       </c>
       <c r="P4">
-        <v>0.07834671003081929</v>
+        <v>0.08764620478296728</v>
       </c>
       <c r="Q4">
-        <v>2.135923469907768</v>
+        <v>6.046002420479999</v>
       </c>
       <c r="R4">
-        <v>2.135923469907768</v>
+        <v>36.27601452288</v>
       </c>
       <c r="S4">
-        <v>0.02622457591358635</v>
+        <v>0.02956424975663585</v>
       </c>
       <c r="T4">
-        <v>0.02622457591358635</v>
+        <v>0.02679905475637548</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.378121479717669</v>
+        <v>1.019961</v>
       </c>
       <c r="H5">
-        <v>0.378121479717669</v>
+        <v>2.039922</v>
       </c>
       <c r="I5">
-        <v>0.3347246604646241</v>
+        <v>0.3840722173751125</v>
       </c>
       <c r="J5">
-        <v>0.3347246604646241</v>
+        <v>0.3057640068128024</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.98816026829204</v>
+        <v>6.071436333333334</v>
       </c>
       <c r="N5">
-        <v>5.98816026829204</v>
+        <v>18.214309</v>
       </c>
       <c r="O5">
-        <v>0.08305386361412043</v>
+        <v>0.07884255039480526</v>
       </c>
       <c r="P5">
-        <v>0.08305386361412043</v>
+        <v>0.08977177448817772</v>
       </c>
       <c r="Q5">
-        <v>2.26425202143314</v>
+        <v>6.192628273983</v>
       </c>
       <c r="R5">
-        <v>2.26425202143314</v>
+        <v>37.155769643898</v>
       </c>
       <c r="S5">
-        <v>0.02780017629851166</v>
+        <v>0.03028123315364191</v>
       </c>
       <c r="T5">
-        <v>0.02780017629851166</v>
+        <v>0.02744897746620053</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.378121479717669</v>
+        <v>1.019961</v>
       </c>
       <c r="H6">
-        <v>0.378121479717669</v>
+        <v>2.039922</v>
       </c>
       <c r="I6">
-        <v>0.3347246604646241</v>
+        <v>0.3840722173751125</v>
       </c>
       <c r="J6">
-        <v>0.3347246604646241</v>
+        <v>0.3057640068128024</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.951221760547551</v>
+        <v>10.56170766666667</v>
       </c>
       <c r="N6">
-        <v>9.951221760547551</v>
+        <v>31.685123</v>
       </c>
       <c r="O6">
-        <v>0.1380202562831734</v>
+        <v>0.1371523842542203</v>
       </c>
       <c r="P6">
-        <v>0.1380202562831734</v>
+        <v>0.1561645691080663</v>
       </c>
       <c r="Q6">
-        <v>3.762770697096907</v>
+        <v>10.772529913401</v>
       </c>
       <c r="R6">
-        <v>3.762770697096907</v>
+        <v>64.63517948040598</v>
       </c>
       <c r="S6">
-        <v>0.04619878342162561</v>
+        <v>0.05267642033880184</v>
       </c>
       <c r="T6">
-        <v>0.04619878342162561</v>
+        <v>0.04774950437267712</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.378121479717669</v>
+        <v>1.019961</v>
       </c>
       <c r="H7">
-        <v>0.378121479717669</v>
+        <v>2.039922</v>
       </c>
       <c r="I7">
-        <v>0.3347246604646241</v>
+        <v>0.3840722173751125</v>
       </c>
       <c r="J7">
-        <v>0.3347246604646241</v>
+        <v>0.3057640068128024</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.1958908183617</v>
+        <v>17.446105</v>
       </c>
       <c r="N7">
-        <v>15.1958908183617</v>
+        <v>34.89221</v>
       </c>
       <c r="O7">
-        <v>0.2107621351095285</v>
+        <v>0.2265518959828062</v>
       </c>
       <c r="P7">
-        <v>0.2107621351095285</v>
+        <v>0.1719711468337415</v>
       </c>
       <c r="Q7">
-        <v>5.745892721867067</v>
+        <v>17.794346701905</v>
       </c>
       <c r="R7">
-        <v>5.745892721867067</v>
+        <v>71.17738680762</v>
       </c>
       <c r="S7">
-        <v>0.07054728411333616</v>
+        <v>0.08701228904065222</v>
       </c>
       <c r="T7">
-        <v>0.07054728411333616</v>
+        <v>0.05258258691207758</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.488176406658805</v>
+        <v>0.4297340000000001</v>
       </c>
       <c r="H8">
-        <v>0.488176406658805</v>
+        <v>1.289202</v>
       </c>
       <c r="I8">
-        <v>0.4321486366966449</v>
+        <v>0.1618188247016078</v>
       </c>
       <c r="J8">
-        <v>0.4321486366966449</v>
+        <v>0.1932385498617489</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.6444693044665</v>
+        <v>10.6794795</v>
       </c>
       <c r="N8">
-        <v>10.6444693044665</v>
+        <v>21.358959</v>
       </c>
       <c r="O8">
-        <v>0.1476353775197148</v>
+        <v>0.1386817475209803</v>
       </c>
       <c r="P8">
-        <v>0.1476353775197148</v>
+        <v>0.1052706227093344</v>
       </c>
       <c r="Q8">
-        <v>5.196378775844406</v>
+        <v>4.589335443453001</v>
       </c>
       <c r="R8">
-        <v>5.196378775844406</v>
+        <v>27.536012660718</v>
       </c>
       <c r="S8">
-        <v>0.06380042712333928</v>
+        <v>0.02244131739141014</v>
       </c>
       <c r="T8">
-        <v>0.06380042712333928</v>
+        <v>0.02034234247539507</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.488176406658805</v>
+        <v>0.4297340000000001</v>
       </c>
       <c r="H9">
-        <v>0.488176406658805</v>
+        <v>1.289202</v>
       </c>
       <c r="I9">
-        <v>0.4321486366966449</v>
+        <v>0.1618188247016078</v>
       </c>
       <c r="J9">
-        <v>0.4321486366966449</v>
+        <v>0.1932385498617489</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>24.6712015127492</v>
+        <v>26.32069366666667</v>
       </c>
       <c r="N9">
-        <v>24.6712015127492</v>
+        <v>78.962081</v>
       </c>
       <c r="O9">
-        <v>0.3421816574426433</v>
+        <v>0.3417956646349414</v>
       </c>
       <c r="P9">
-        <v>0.3421816574426433</v>
+        <v>0.3891756820777128</v>
       </c>
       <c r="Q9">
-        <v>12.04389850244918</v>
+        <v>11.31089697215134</v>
       </c>
       <c r="R9">
-        <v>12.04389850244918</v>
+        <v>101.798072749362</v>
       </c>
       <c r="S9">
-        <v>0.1478733367664367</v>
+        <v>0.05530897273933112</v>
       </c>
       <c r="T9">
-        <v>0.1478733367664367</v>
+        <v>0.07520374444615426</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.488176406658805</v>
+        <v>0.4297340000000001</v>
       </c>
       <c r="H10">
-        <v>0.488176406658805</v>
+        <v>1.289202</v>
       </c>
       <c r="I10">
-        <v>0.4321486366966449</v>
+        <v>0.1618188247016078</v>
       </c>
       <c r="J10">
-        <v>0.4321486366966449</v>
+        <v>0.1932385498617489</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.64877581538767</v>
+        <v>5.92768</v>
       </c>
       <c r="N10">
-        <v>5.64877581538767</v>
+        <v>17.78304</v>
       </c>
       <c r="O10">
-        <v>0.07834671003081929</v>
+        <v>0.07697575721224656</v>
       </c>
       <c r="P10">
-        <v>0.07834671003081929</v>
+        <v>0.08764620478296728</v>
       </c>
       <c r="Q10">
-        <v>2.757599079577114</v>
+        <v>2.54732563712</v>
       </c>
       <c r="R10">
-        <v>2.757599079577114</v>
+        <v>22.92593073408</v>
       </c>
       <c r="S10">
-        <v>0.03385742392948592</v>
+        <v>0.01245612656260205</v>
       </c>
       <c r="T10">
-        <v>0.03385742392948592</v>
+        <v>0.01693662551314648</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.488176406658805</v>
+        <v>0.4297340000000001</v>
       </c>
       <c r="H11">
-        <v>0.488176406658805</v>
+        <v>1.289202</v>
       </c>
       <c r="I11">
-        <v>0.4321486366966449</v>
+        <v>0.1618188247016078</v>
       </c>
       <c r="J11">
-        <v>0.4321486366966449</v>
+        <v>0.1932385498617489</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.98816026829204</v>
+        <v>6.071436333333334</v>
       </c>
       <c r="N11">
-        <v>5.98816026829204</v>
+        <v>18.214309</v>
       </c>
       <c r="O11">
-        <v>0.08305386361412043</v>
+        <v>0.07884255039480526</v>
       </c>
       <c r="P11">
-        <v>0.08305386361412043</v>
+        <v>0.08977177448817772</v>
       </c>
       <c r="Q11">
-        <v>2.923278562271834</v>
+        <v>2.609102621268667</v>
       </c>
       <c r="R11">
-        <v>2.923278562271834</v>
+        <v>23.481923591418</v>
       </c>
       <c r="S11">
-        <v>0.03589161393323122</v>
+        <v>0.01275820884136467</v>
       </c>
       <c r="T11">
-        <v>0.03589161393323122</v>
+        <v>0.01734736752061141</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.488176406658805</v>
+        <v>0.4297340000000001</v>
       </c>
       <c r="H12">
-        <v>0.488176406658805</v>
+        <v>1.289202</v>
       </c>
       <c r="I12">
-        <v>0.4321486366966449</v>
+        <v>0.1618188247016078</v>
       </c>
       <c r="J12">
-        <v>0.4321486366966449</v>
+        <v>0.1932385498617489</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.951221760547551</v>
+        <v>10.56170766666667</v>
       </c>
       <c r="N12">
-        <v>9.951221760547551</v>
+        <v>31.685123</v>
       </c>
       <c r="O12">
-        <v>0.1380202562831734</v>
+        <v>0.1371523842542203</v>
       </c>
       <c r="P12">
-        <v>0.1380202562831734</v>
+        <v>0.1561645691080663</v>
       </c>
       <c r="Q12">
-        <v>4.857951680929011</v>
+        <v>4.538724882427333</v>
       </c>
       <c r="R12">
-        <v>4.857951680929011</v>
+        <v>40.848523941846</v>
       </c>
       <c r="S12">
-        <v>0.05964526558929492</v>
+        <v>0.02219383762504123</v>
       </c>
       <c r="T12">
-        <v>0.05964526558929492</v>
+        <v>0.0301770148742276</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.488176406658805</v>
+        <v>0.4297340000000001</v>
       </c>
       <c r="H13">
-        <v>0.488176406658805</v>
+        <v>1.289202</v>
       </c>
       <c r="I13">
-        <v>0.4321486366966449</v>
+        <v>0.1618188247016078</v>
       </c>
       <c r="J13">
-        <v>0.4321486366966449</v>
+        <v>0.1932385498617489</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.1958908183617</v>
+        <v>17.446105</v>
       </c>
       <c r="N13">
-        <v>15.1958908183617</v>
+        <v>34.89221</v>
       </c>
       <c r="O13">
-        <v>0.2107621351095285</v>
+        <v>0.2265518959828062</v>
       </c>
       <c r="P13">
-        <v>0.2107621351095285</v>
+        <v>0.1719711468337415</v>
       </c>
       <c r="Q13">
-        <v>7.418275375687343</v>
+        <v>7.497184486070001</v>
       </c>
       <c r="R13">
-        <v>7.418275375687343</v>
+        <v>44.98310691642001</v>
       </c>
       <c r="S13">
-        <v>0.09108056935485684</v>
+        <v>0.03666036154185861</v>
       </c>
       <c r="T13">
-        <v>0.09108056935485684</v>
+        <v>0.03323145503221411</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.263351417600134</v>
+        <v>0.08729066666666667</v>
       </c>
       <c r="H14">
-        <v>0.263351417600134</v>
+        <v>0.261872</v>
       </c>
       <c r="I14">
-        <v>0.233126702838731</v>
+        <v>0.03286980571102081</v>
       </c>
       <c r="J14">
-        <v>0.233126702838731</v>
+        <v>0.03925200669049219</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.6444693044665</v>
+        <v>10.6794795</v>
       </c>
       <c r="N14">
-        <v>10.6444693044665</v>
+        <v>21.358959</v>
       </c>
       <c r="O14">
-        <v>0.1476353775197148</v>
+        <v>0.1386817475209803</v>
       </c>
       <c r="P14">
-        <v>0.1476353775197148</v>
+        <v>0.1052706227093344</v>
       </c>
       <c r="Q14">
-        <v>2.803236080932365</v>
+        <v>0.932218885208</v>
       </c>
       <c r="R14">
-        <v>2.803236080932365</v>
+        <v>5.593313311247999</v>
       </c>
       <c r="S14">
-        <v>0.03441774878352243</v>
+        <v>0.004558442096679462</v>
       </c>
       <c r="T14">
-        <v>0.03441774878352243</v>
+        <v>0.004132083186899073</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.263351417600134</v>
+        <v>0.08729066666666667</v>
       </c>
       <c r="H15">
-        <v>0.263351417600134</v>
+        <v>0.261872</v>
       </c>
       <c r="I15">
-        <v>0.233126702838731</v>
+        <v>0.03286980571102081</v>
       </c>
       <c r="J15">
-        <v>0.233126702838731</v>
+        <v>0.03925200669049219</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>24.6712015127492</v>
+        <v>26.32069366666667</v>
       </c>
       <c r="N15">
-        <v>24.6712015127492</v>
+        <v>78.962081</v>
       </c>
       <c r="O15">
-        <v>0.3421816574426433</v>
+        <v>0.3417956646349414</v>
       </c>
       <c r="P15">
-        <v>0.3421816574426433</v>
+        <v>0.3891756820777128</v>
       </c>
       <c r="Q15">
-        <v>6.497195892281072</v>
+        <v>2.297550897292445</v>
       </c>
       <c r="R15">
-        <v>6.497195892281072</v>
+        <v>20.677958075632</v>
       </c>
       <c r="S15">
-        <v>0.07977168157149553</v>
+        <v>0.01123475708941975</v>
       </c>
       <c r="T15">
-        <v>0.07977168157149553</v>
+        <v>0.01527592647669124</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.263351417600134</v>
+        <v>0.08729066666666667</v>
       </c>
       <c r="H16">
-        <v>0.263351417600134</v>
+        <v>0.261872</v>
       </c>
       <c r="I16">
-        <v>0.233126702838731</v>
+        <v>0.03286980571102081</v>
       </c>
       <c r="J16">
-        <v>0.233126702838731</v>
+        <v>0.03925200669049219</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.64877581538767</v>
+        <v>5.92768</v>
       </c>
       <c r="N16">
-        <v>5.64877581538767</v>
+        <v>17.78304</v>
       </c>
       <c r="O16">
-        <v>0.07834671003081929</v>
+        <v>0.07697575721224656</v>
       </c>
       <c r="P16">
-        <v>0.07834671003081929</v>
+        <v>0.08764620478296728</v>
       </c>
       <c r="Q16">
-        <v>1.487613118687696</v>
+        <v>0.5174311389866666</v>
       </c>
       <c r="R16">
-        <v>1.487613118687696</v>
+        <v>4.65688025088</v>
       </c>
       <c r="S16">
-        <v>0.01826471018774703</v>
+        <v>0.002530178184025253</v>
       </c>
       <c r="T16">
-        <v>0.01826471018774703</v>
+        <v>0.00344028941653728</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.263351417600134</v>
+        <v>0.08729066666666667</v>
       </c>
       <c r="H17">
-        <v>0.263351417600134</v>
+        <v>0.261872</v>
       </c>
       <c r="I17">
-        <v>0.233126702838731</v>
+        <v>0.03286980571102081</v>
       </c>
       <c r="J17">
-        <v>0.233126702838731</v>
+        <v>0.03925200669049219</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.98816026829204</v>
+        <v>6.071436333333334</v>
       </c>
       <c r="N17">
-        <v>5.98816026829204</v>
+        <v>18.214309</v>
       </c>
       <c r="O17">
-        <v>0.08305386361412043</v>
+        <v>0.07884255039480526</v>
       </c>
       <c r="P17">
-        <v>0.08305386361412043</v>
+        <v>0.08977177448817772</v>
       </c>
       <c r="Q17">
-        <v>1.576990495471507</v>
+        <v>0.529979725160889</v>
       </c>
       <c r="R17">
-        <v>1.576990495471507</v>
+        <v>4.769817526448</v>
       </c>
       <c r="S17">
-        <v>0.01936207338237754</v>
+        <v>0.002591539313238616</v>
       </c>
       <c r="T17">
-        <v>0.01936207338237754</v>
+        <v>0.003523722292827308</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.263351417600134</v>
+        <v>0.08729066666666667</v>
       </c>
       <c r="H18">
-        <v>0.263351417600134</v>
+        <v>0.261872</v>
       </c>
       <c r="I18">
-        <v>0.233126702838731</v>
+        <v>0.03286980571102081</v>
       </c>
       <c r="J18">
-        <v>0.233126702838731</v>
+        <v>0.03925200669049219</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.951221760547551</v>
+        <v>10.56170766666667</v>
       </c>
       <c r="N18">
-        <v>9.951221760547551</v>
+        <v>31.685123</v>
       </c>
       <c r="O18">
-        <v>0.1380202562831734</v>
+        <v>0.1371523842542203</v>
       </c>
       <c r="P18">
-        <v>0.1380202562831734</v>
+        <v>0.1561645691080663</v>
       </c>
       <c r="Q18">
-        <v>2.620668357493499</v>
+        <v>0.9219385033617776</v>
       </c>
       <c r="R18">
-        <v>2.620668357493499</v>
+        <v>8.297446530256</v>
       </c>
       <c r="S18">
-        <v>0.03217620727225285</v>
+        <v>0.00450817222323949</v>
       </c>
       <c r="T18">
-        <v>0.03217620727225285</v>
+        <v>0.006129772711447647</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,1177 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.08729066666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.261872</v>
+      </c>
+      <c r="I19">
+        <v>0.03286980571102081</v>
+      </c>
+      <c r="J19">
+        <v>0.03925200669049219</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>17.446105</v>
+      </c>
+      <c r="N19">
+        <v>34.89221</v>
+      </c>
+      <c r="O19">
+        <v>0.2265518959828062</v>
+      </c>
+      <c r="P19">
+        <v>0.1719711468337415</v>
+      </c>
+      <c r="Q19">
+        <v>1.522882136186667</v>
+      </c>
+      <c r="R19">
+        <v>9.137292817119999</v>
+      </c>
+      <c r="S19">
+        <v>0.007446716804418236</v>
+      </c>
+      <c r="T19">
+        <v>0.006750212606089637</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.2427346666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.728204</v>
+      </c>
+      <c r="I20">
+        <v>0.09140314351281616</v>
+      </c>
+      <c r="J20">
+        <v>0.1091505326267916</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>10.6794795</v>
+      </c>
+      <c r="N20">
+        <v>21.358959</v>
+      </c>
+      <c r="O20">
+        <v>0.1386817475209803</v>
+      </c>
+      <c r="P20">
+        <v>0.1052706227093344</v>
+      </c>
+      <c r="Q20">
+        <v>2.592279896606</v>
+      </c>
+      <c r="R20">
+        <v>15.553679379636</v>
+      </c>
+      <c r="S20">
+        <v>0.01267594767126829</v>
+      </c>
+      <c r="T20">
+        <v>0.01149034453867787</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.2427346666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.728204</v>
+      </c>
+      <c r="I21">
+        <v>0.09140314351281616</v>
+      </c>
+      <c r="J21">
+        <v>0.1091505326267916</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>26.32069366666667</v>
+      </c>
+      <c r="N21">
+        <v>78.962081</v>
+      </c>
+      <c r="O21">
+        <v>0.3417956646349414</v>
+      </c>
+      <c r="P21">
+        <v>0.3891756820777128</v>
+      </c>
+      <c r="Q21">
+        <v>6.388944803613778</v>
+      </c>
+      <c r="R21">
+        <v>57.500503232524</v>
+      </c>
+      <c r="S21">
+        <v>0.03124119818668593</v>
+      </c>
+      <c r="T21">
+        <v>0.04247873298417727</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.2427346666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.728204</v>
+      </c>
+      <c r="I22">
+        <v>0.09140314351281616</v>
+      </c>
+      <c r="J22">
+        <v>0.1091505326267916</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>5.92768</v>
+      </c>
+      <c r="N22">
+        <v>17.78304</v>
+      </c>
+      <c r="O22">
+        <v>0.07697575721224656</v>
+      </c>
+      <c r="P22">
+        <v>0.08764620478296728</v>
+      </c>
+      <c r="Q22">
+        <v>1.438853428906667</v>
+      </c>
+      <c r="R22">
+        <v>12.94968086016</v>
+      </c>
+      <c r="S22">
+        <v>0.007035826183478666</v>
+      </c>
+      <c r="T22">
+        <v>0.009566629934777729</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.2427346666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.728204</v>
+      </c>
+      <c r="I23">
+        <v>0.09140314351281616</v>
+      </c>
+      <c r="J23">
+        <v>0.1091505326267916</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>6.071436333333334</v>
+      </c>
+      <c r="N23">
+        <v>18.214309</v>
+      </c>
+      <c r="O23">
+        <v>0.07884255039480526</v>
+      </c>
+      <c r="P23">
+        <v>0.08977177448817772</v>
+      </c>
+      <c r="Q23">
+        <v>1.473748074559555</v>
+      </c>
+      <c r="R23">
+        <v>13.263732671036</v>
+      </c>
+      <c r="S23">
+        <v>0.007206456948652825</v>
+      </c>
+      <c r="T23">
+        <v>0.009798637000236822</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.2427346666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.728204</v>
+      </c>
+      <c r="I24">
+        <v>0.09140314351281616</v>
+      </c>
+      <c r="J24">
+        <v>0.1091505326267916</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>10.56170766666667</v>
+      </c>
+      <c r="N24">
+        <v>31.685123</v>
+      </c>
+      <c r="O24">
+        <v>0.1371523842542203</v>
+      </c>
+      <c r="P24">
+        <v>0.1561645691080663</v>
+      </c>
+      <c r="Q24">
+        <v>2.563692589899111</v>
+      </c>
+      <c r="R24">
+        <v>23.073233309092</v>
+      </c>
+      <c r="S24">
+        <v>0.0125361590611134</v>
+      </c>
+      <c r="T24">
+        <v>0.01704544589557884</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.2427346666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.728204</v>
+      </c>
+      <c r="I25">
+        <v>0.09140314351281616</v>
+      </c>
+      <c r="J25">
+        <v>0.1091505326267916</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>17.446105</v>
+      </c>
+      <c r="N25">
+        <v>34.89221</v>
+      </c>
+      <c r="O25">
+        <v>0.2265518959828062</v>
+      </c>
+      <c r="P25">
+        <v>0.1719711468337415</v>
+      </c>
+      <c r="Q25">
+        <v>4.234774481806666</v>
+      </c>
+      <c r="R25">
+        <v>25.40864689084</v>
+      </c>
+      <c r="S25">
+        <v>0.02070755546161704</v>
+      </c>
+      <c r="T25">
+        <v>0.01877074227334307</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.6004996666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.801499</v>
+      </c>
+      <c r="I26">
+        <v>0.2261216247578904</v>
+      </c>
+      <c r="J26">
+        <v>0.270026771861501</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>10.6794795</v>
+      </c>
+      <c r="N26">
+        <v>21.358959</v>
+      </c>
+      <c r="O26">
+        <v>0.1386817475209803</v>
+      </c>
+      <c r="P26">
+        <v>0.1052706227093344</v>
+      </c>
+      <c r="Q26">
+        <v>6.413023879923499</v>
+      </c>
+      <c r="R26">
+        <v>38.47814327954099</v>
+      </c>
+      <c r="S26">
+        <v>0.03135894207370759</v>
+      </c>
+      <c r="T26">
+        <v>0.02842588642205158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.6004996666666667</v>
+      </c>
+      <c r="H27">
+        <v>1.801499</v>
+      </c>
+      <c r="I27">
+        <v>0.2261216247578904</v>
+      </c>
+      <c r="J27">
+        <v>0.270026771861501</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>26.32069366666667</v>
+      </c>
+      <c r="N27">
+        <v>78.962081</v>
+      </c>
+      <c r="O27">
+        <v>0.3417956646349414</v>
+      </c>
+      <c r="P27">
+        <v>0.3891756820777128</v>
+      </c>
+      <c r="Q27">
+        <v>15.80556777326878</v>
+      </c>
+      <c r="R27">
+        <v>142.250109959419</v>
+      </c>
+      <c r="S27">
+        <v>0.07728739102245595</v>
+      </c>
+      <c r="T27">
+        <v>0.1050878531184426</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.263351417600134</v>
-      </c>
-      <c r="H19">
-        <v>0.263351417600134</v>
-      </c>
-      <c r="I19">
-        <v>0.233126702838731</v>
-      </c>
-      <c r="J19">
-        <v>0.233126702838731</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>15.1958908183617</v>
-      </c>
-      <c r="N19">
-        <v>15.1958908183617</v>
-      </c>
-      <c r="O19">
-        <v>0.2107621351095285</v>
-      </c>
-      <c r="P19">
-        <v>0.2107621351095285</v>
-      </c>
-      <c r="Q19">
-        <v>4.001859388712414</v>
-      </c>
-      <c r="R19">
-        <v>4.001859388712414</v>
-      </c>
-      <c r="S19">
-        <v>0.04913428164133553</v>
-      </c>
-      <c r="T19">
-        <v>0.04913428164133553</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.6004996666666667</v>
+      </c>
+      <c r="H28">
+        <v>1.801499</v>
+      </c>
+      <c r="I28">
+        <v>0.2261216247578904</v>
+      </c>
+      <c r="J28">
+        <v>0.270026771861501</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>5.92768</v>
+      </c>
+      <c r="N28">
+        <v>17.78304</v>
+      </c>
+      <c r="O28">
+        <v>0.07697575721224656</v>
+      </c>
+      <c r="P28">
+        <v>0.08764620478296728</v>
+      </c>
+      <c r="Q28">
+        <v>3.559569864106666</v>
+      </c>
+      <c r="R28">
+        <v>32.03612877696</v>
+      </c>
+      <c r="S28">
+        <v>0.01740588328780209</v>
+      </c>
+      <c r="T28">
+        <v>0.0236668217434567</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.6004996666666667</v>
+      </c>
+      <c r="H29">
+        <v>1.801499</v>
+      </c>
+      <c r="I29">
+        <v>0.2261216247578904</v>
+      </c>
+      <c r="J29">
+        <v>0.270026771861501</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>6.071436333333334</v>
+      </c>
+      <c r="N29">
+        <v>18.214309</v>
+      </c>
+      <c r="O29">
+        <v>0.07884255039480526</v>
+      </c>
+      <c r="P29">
+        <v>0.08977177448817772</v>
+      </c>
+      <c r="Q29">
+        <v>3.645895494354556</v>
+      </c>
+      <c r="R29">
+        <v>32.813059449191</v>
+      </c>
+      <c r="S29">
+        <v>0.01782800559532921</v>
+      </c>
+      <c r="T29">
+        <v>0.02424078246932128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.6004996666666667</v>
+      </c>
+      <c r="H30">
+        <v>1.801499</v>
+      </c>
+      <c r="I30">
+        <v>0.2261216247578904</v>
+      </c>
+      <c r="J30">
+        <v>0.270026771861501</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>10.56170766666667</v>
+      </c>
+      <c r="N30">
+        <v>31.685123</v>
+      </c>
+      <c r="O30">
+        <v>0.1371523842542203</v>
+      </c>
+      <c r="P30">
+        <v>0.1561645691080663</v>
+      </c>
+      <c r="Q30">
+        <v>6.34230193326411</v>
+      </c>
+      <c r="R30">
+        <v>57.08071739937699</v>
+      </c>
+      <c r="S30">
+        <v>0.03101311996698278</v>
+      </c>
+      <c r="T30">
+        <v>0.04216861447539341</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.6004996666666667</v>
+      </c>
+      <c r="H31">
+        <v>1.801499</v>
+      </c>
+      <c r="I31">
+        <v>0.2261216247578904</v>
+      </c>
+      <c r="J31">
+        <v>0.270026771861501</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>17.446105</v>
+      </c>
+      <c r="N31">
+        <v>34.89221</v>
+      </c>
+      <c r="O31">
+        <v>0.2265518959828062</v>
+      </c>
+      <c r="P31">
+        <v>0.1719711468337415</v>
+      </c>
+      <c r="Q31">
+        <v>10.47638023713167</v>
+      </c>
+      <c r="R31">
+        <v>62.85828142278999</v>
+      </c>
+      <c r="S31">
+        <v>0.05122828281161271</v>
+      </c>
+      <c r="T31">
+        <v>0.0464368136328354</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.275429</v>
+      </c>
+      <c r="H32">
+        <v>0.5508580000000001</v>
+      </c>
+      <c r="I32">
+        <v>0.1037143839415526</v>
+      </c>
+      <c r="J32">
+        <v>0.08256813214666382</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>10.6794795</v>
+      </c>
+      <c r="N32">
+        <v>21.358959</v>
+      </c>
+      <c r="O32">
+        <v>0.1386817475209803</v>
+      </c>
+      <c r="P32">
+        <v>0.1052706227093344</v>
+      </c>
+      <c r="Q32">
+        <v>2.9414383592055</v>
+      </c>
+      <c r="R32">
+        <v>11.765753436822</v>
+      </c>
+      <c r="S32">
+        <v>0.0143832920080764</v>
+      </c>
+      <c r="T32">
+        <v>0.008691998687025911</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.275429</v>
+      </c>
+      <c r="H33">
+        <v>0.5508580000000001</v>
+      </c>
+      <c r="I33">
+        <v>0.1037143839415526</v>
+      </c>
+      <c r="J33">
+        <v>0.08256813214666382</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>26.32069366666667</v>
+      </c>
+      <c r="N33">
+        <v>78.962081</v>
+      </c>
+      <c r="O33">
+        <v>0.3417956646349414</v>
+      </c>
+      <c r="P33">
+        <v>0.3891756820777128</v>
+      </c>
+      <c r="Q33">
+        <v>7.249482335916334</v>
+      </c>
+      <c r="R33">
+        <v>43.49689401549801</v>
+      </c>
+      <c r="S33">
+        <v>0.03544912679150645</v>
+      </c>
+      <c r="T33">
+        <v>0.03213350914606062</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.275429</v>
+      </c>
+      <c r="H34">
+        <v>0.5508580000000001</v>
+      </c>
+      <c r="I34">
+        <v>0.1037143839415526</v>
+      </c>
+      <c r="J34">
+        <v>0.08256813214666382</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>5.92768</v>
+      </c>
+      <c r="N34">
+        <v>17.78304</v>
+      </c>
+      <c r="O34">
+        <v>0.07697575721224656</v>
+      </c>
+      <c r="P34">
+        <v>0.08764620478296728</v>
+      </c>
+      <c r="Q34">
+        <v>1.63265497472</v>
+      </c>
+      <c r="R34">
+        <v>9.795929848320002</v>
+      </c>
+      <c r="S34">
+        <v>0.007983493237702673</v>
+      </c>
+      <c r="T34">
+        <v>0.007236783418673601</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.275429</v>
+      </c>
+      <c r="H35">
+        <v>0.5508580000000001</v>
+      </c>
+      <c r="I35">
+        <v>0.1037143839415526</v>
+      </c>
+      <c r="J35">
+        <v>0.08256813214666382</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>6.071436333333334</v>
+      </c>
+      <c r="N35">
+        <v>18.214309</v>
+      </c>
+      <c r="O35">
+        <v>0.07884255039480526</v>
+      </c>
+      <c r="P35">
+        <v>0.08977177448817772</v>
+      </c>
+      <c r="Q35">
+        <v>1.672249637853667</v>
+      </c>
+      <c r="R35">
+        <v>10.033497827122</v>
+      </c>
+      <c r="S35">
+        <v>0.008177106542578038</v>
+      </c>
+      <c r="T35">
+        <v>0.007412287738980362</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.275429</v>
+      </c>
+      <c r="H36">
+        <v>0.5508580000000001</v>
+      </c>
+      <c r="I36">
+        <v>0.1037143839415526</v>
+      </c>
+      <c r="J36">
+        <v>0.08256813214666382</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>10.56170766666667</v>
+      </c>
+      <c r="N36">
+        <v>31.685123</v>
+      </c>
+      <c r="O36">
+        <v>0.1371523842542203</v>
+      </c>
+      <c r="P36">
+        <v>0.1561645691080663</v>
+      </c>
+      <c r="Q36">
+        <v>2.909000580922333</v>
+      </c>
+      <c r="R36">
+        <v>17.454003485534</v>
+      </c>
+      <c r="S36">
+        <v>0.01422467503904155</v>
+      </c>
+      <c r="T36">
+        <v>0.01289421677874163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.275429</v>
+      </c>
+      <c r="H37">
+        <v>0.5508580000000001</v>
+      </c>
+      <c r="I37">
+        <v>0.1037143839415526</v>
+      </c>
+      <c r="J37">
+        <v>0.08256813214666382</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>17.446105</v>
+      </c>
+      <c r="N37">
+        <v>34.89221</v>
+      </c>
+      <c r="O37">
+        <v>0.2265518959828062</v>
+      </c>
+      <c r="P37">
+        <v>0.1719711468337415</v>
+      </c>
+      <c r="Q37">
+        <v>4.805163254045</v>
+      </c>
+      <c r="R37">
+        <v>19.22065301618</v>
+      </c>
+      <c r="S37">
+        <v>0.02349669032264744</v>
+      </c>
+      <c r="T37">
+        <v>0.0141993363771817</v>
       </c>
     </row>
   </sheetData>
